--- a/data/unique_users_by_years.xlsx
+++ b/data/unique_users_by_years.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="pub_sys" sheetId="1" state="visible" r:id="rId2"/>
@@ -52,10 +52,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="166" formatCode="#,##0"/>
+    <numFmt numFmtId="167" formatCode="0.00%"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -206,7 +207,7 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -248,6 +249,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -345,7 +350,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -490,11 +495,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="79174503"/>
-        <c:axId val="37174707"/>
+        <c:axId val="21690164"/>
+        <c:axId val="89578457"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79174503"/>
+        <c:axId val="21690164"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -522,7 +527,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37174707"/>
+        <c:crossAx val="89578457"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -530,7 +535,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37174707"/>
+        <c:axId val="89578457"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -567,7 +572,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79174503"/>
+        <c:crossAx val="21690164"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -598,16 +603,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>406080</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>218520</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>143280</xdr:rowOff>
+      <xdr:rowOff>66960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>208080</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>20160</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>133560</xdr:rowOff>
+      <xdr:rowOff>57240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -615,7 +620,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2031840" y="306000"/>
+        <a:off x="2656800" y="229680"/>
         <a:ext cx="7929720" cy="4379400"/>
       </xdr:xfrm>
       <a:graphic>
@@ -13310,7 +13315,7 @@
   </sheetPr>
   <dimension ref="A1:B146"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -14506,8 +14511,8 @@
   </sheetPr>
   <dimension ref="A1:D1879"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U101" activeCellId="0" sqref="U101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -42717,10 +42722,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N14" activeCellId="0" sqref="N14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T28" activeCellId="0" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -42748,37 +42753,57 @@
       <c r="B4" s="10" t="n">
         <v>362100</v>
       </c>
+      <c r="C4" s="11" t="n">
+        <f aca="false">B4/$B$4</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="n">
+      <c r="A5" s="12" t="n">
         <v>44562</v>
       </c>
-      <c r="B5" s="12" t="n">
+      <c r="B5" s="13" t="n">
         <v>340070</v>
       </c>
+      <c r="C5" s="11" t="n">
+        <f aca="false">B5/$B$4</f>
+        <v>0.93916045291356</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="n">
+      <c r="A6" s="12" t="n">
         <v>44927</v>
       </c>
-      <c r="B6" s="12" t="n">
+      <c r="B6" s="13" t="n">
         <v>318172</v>
       </c>
+      <c r="C6" s="11" t="n">
+        <f aca="false">B6/$B$4</f>
+        <v>0.87868544600939</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="n">
+      <c r="A7" s="12" t="n">
         <v>45292</v>
       </c>
-      <c r="B7" s="12" t="n">
+      <c r="B7" s="13" t="n">
         <v>303264</v>
       </c>
+      <c r="C7" s="11" t="n">
+        <f aca="false">B7/$B$4</f>
+        <v>0.837514498757249</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="n">
+      <c r="A8" s="14" t="n">
         <v>45658</v>
       </c>
-      <c r="B8" s="14" t="n">
+      <c r="B8" s="15" t="n">
         <v>126357</v>
+      </c>
+      <c r="C8" s="11" t="n">
+        <f aca="false">B8/$B$4</f>
+        <v>0.348956089478045</v>
       </c>
     </row>
   </sheetData>
